--- a/data/distances/Steese_spp_dist_2021_raw.xlsx
+++ b/data/distances/Steese_spp_dist_2021_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Chapters/Flammabllity/data/distances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA793A8C-26C4-604F-B521-9BCAA5756FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7588C7-6A1D-0B49-85FB-7134E714BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="1940" windowWidth="25220" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A923" workbookViewId="0">
-      <selection activeCell="K946" sqref="K946"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="G471" sqref="G471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11578,7 +11578,7 @@
       <c r="E461" t="s">
         <v>18</v>
       </c>
-      <c r="F461">
+      <c r="G461">
         <v>32.5</v>
       </c>
       <c r="H461" t="s">

--- a/data/distances/Steese_spp_dist_2021_raw.xlsx
+++ b/data/distances/Steese_spp_dist_2021_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Chapters/Flammabllity/data/distances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7588C7-6A1D-0B49-85FB-7134E714BDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40BE67-FDAC-2243-806C-A3C9E97E0F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="1940" windowWidth="25220" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="25220" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steese_spp_dist_2021" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="37">
   <si>
     <t>Site</t>
   </si>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +268,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -971,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H931"/>
+  <dimension ref="A1:H871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="G471" sqref="G471"/>
+    <sheetView tabSelected="1" topLeftCell="A647" workbookViewId="0">
+      <selection activeCell="A662" sqref="A662:XFD721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16190,7 +16196,7 @@
         <v>8</v>
       </c>
       <c r="B662" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C662">
         <v>3</v>
@@ -16199,10 +16205,10 @@
         <v>1</v>
       </c>
       <c r="E662" t="s">
-        <v>10</v>
-      </c>
-      <c r="F662">
-        <v>1.6</v>
+        <v>16</v>
+      </c>
+      <c r="G662">
+        <v>26.5</v>
       </c>
       <c r="H662" t="s">
         <v>11</v>
@@ -16213,7 +16219,7 @@
         <v>8</v>
       </c>
       <c r="B663" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C663">
         <v>3</v>
@@ -16222,10 +16228,10 @@
         <v>1</v>
       </c>
       <c r="E663" t="s">
-        <v>14</v>
-      </c>
-      <c r="G663">
-        <v>31.5</v>
+        <v>10</v>
+      </c>
+      <c r="F663">
+        <v>3.25</v>
       </c>
       <c r="H663" t="s">
         <v>11</v>
@@ -16236,7 +16242,7 @@
         <v>8</v>
       </c>
       <c r="B664" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C664">
         <v>3</v>
@@ -16245,10 +16251,10 @@
         <v>1</v>
       </c>
       <c r="E664" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F664">
-        <v>0.47</v>
+        <v>1.36</v>
       </c>
       <c r="H664" t="s">
         <v>11</v>
@@ -16259,7 +16265,7 @@
         <v>8</v>
       </c>
       <c r="B665" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C665">
         <v>3</v>
@@ -16268,10 +16274,10 @@
         <v>1</v>
       </c>
       <c r="E665" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F665">
-        <v>1.88</v>
+        <v>0.8</v>
       </c>
       <c r="H665" t="s">
         <v>11</v>
@@ -16282,7 +16288,7 @@
         <v>8</v>
       </c>
       <c r="B666" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C666">
         <v>3</v>
@@ -16291,10 +16297,10 @@
         <v>1</v>
       </c>
       <c r="E666" t="s">
-        <v>16</v>
-      </c>
-      <c r="F666">
-        <v>3.1</v>
+        <v>14</v>
+      </c>
+      <c r="G666">
+        <v>29</v>
       </c>
       <c r="H666" t="s">
         <v>11</v>
@@ -16305,19 +16311,19 @@
         <v>8</v>
       </c>
       <c r="B667" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C667">
         <v>3</v>
       </c>
       <c r="D667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E667" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F667">
-        <v>16.149999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="H667" t="s">
         <v>11</v>
@@ -16328,7 +16334,7 @@
         <v>8</v>
       </c>
       <c r="B668" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C668">
         <v>3</v>
@@ -16340,7 +16346,7 @@
         <v>10</v>
       </c>
       <c r="F668">
-        <v>3.62</v>
+        <v>0.85</v>
       </c>
       <c r="H668" t="s">
         <v>11</v>
@@ -16351,7 +16357,7 @@
         <v>8</v>
       </c>
       <c r="B669" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C669">
         <v>3</v>
@@ -16360,10 +16366,10 @@
         <v>2</v>
       </c>
       <c r="E669" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F669">
-        <v>5.05</v>
+        <v>1.25</v>
       </c>
       <c r="H669" t="s">
         <v>11</v>
@@ -16374,7 +16380,7 @@
         <v>8</v>
       </c>
       <c r="B670" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C670">
         <v>3</v>
@@ -16386,7 +16392,7 @@
         <v>13</v>
       </c>
       <c r="F670">
-        <v>1.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H670" t="s">
         <v>11</v>
@@ -16397,7 +16403,7 @@
         <v>8</v>
       </c>
       <c r="B671" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C671">
         <v>3</v>
@@ -16406,10 +16412,10 @@
         <v>2</v>
       </c>
       <c r="E671" t="s">
-        <v>12</v>
-      </c>
-      <c r="F671">
-        <v>1.92</v>
+        <v>14</v>
+      </c>
+      <c r="G671">
+        <v>17</v>
       </c>
       <c r="H671" t="s">
         <v>11</v>
@@ -16420,19 +16426,19 @@
         <v>8</v>
       </c>
       <c r="B672" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C672">
         <v>3</v>
       </c>
       <c r="D672">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E672" t="s">
         <v>16</v>
       </c>
       <c r="F672">
-        <v>3.4</v>
+        <v>1.41</v>
       </c>
       <c r="H672" t="s">
         <v>11</v>
@@ -16443,19 +16449,19 @@
         <v>8</v>
       </c>
       <c r="B673" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C673">
         <v>3</v>
       </c>
       <c r="D673">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E673" t="s">
-        <v>18</v>
-      </c>
-      <c r="G673">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="F673">
+        <v>4.2699999999999996</v>
       </c>
       <c r="H673" t="s">
         <v>11</v>
@@ -16466,7 +16472,7 @@
         <v>8</v>
       </c>
       <c r="B674" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C674">
         <v>3</v>
@@ -16475,10 +16481,10 @@
         <v>3</v>
       </c>
       <c r="E674" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F674">
-        <v>3.2</v>
+        <v>1.44</v>
       </c>
       <c r="H674" t="s">
         <v>11</v>
@@ -16489,7 +16495,7 @@
         <v>8</v>
       </c>
       <c r="B675" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C675">
         <v>3</v>
@@ -16498,13 +16504,13 @@
         <v>3</v>
       </c>
       <c r="E675" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F675">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H675" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.2">
@@ -16512,7 +16518,7 @@
         <v>8</v>
       </c>
       <c r="B676" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C676">
         <v>3</v>
@@ -16521,10 +16527,10 @@
         <v>3</v>
       </c>
       <c r="E676" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F676">
-        <v>1.82</v>
+        <v>5.67</v>
       </c>
       <c r="H676" t="s">
         <v>11</v>
@@ -16535,19 +16541,19 @@
         <v>8</v>
       </c>
       <c r="B677" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C677">
         <v>3</v>
       </c>
       <c r="D677">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E677" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F677">
-        <v>1.1499999999999999</v>
+        <v>5.56</v>
       </c>
       <c r="H677" t="s">
         <v>11</v>
@@ -16558,19 +16564,19 @@
         <v>8</v>
       </c>
       <c r="B678" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C678">
         <v>3</v>
       </c>
       <c r="D678">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E678" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F678">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H678" t="s">
         <v>11</v>
@@ -16581,19 +16587,19 @@
         <v>8</v>
       </c>
       <c r="B679" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C679">
         <v>3</v>
       </c>
       <c r="D679">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E679" t="s">
-        <v>18</v>
-      </c>
-      <c r="G679">
-        <v>30.5</v>
+        <v>12</v>
+      </c>
+      <c r="F679">
+        <v>1.68</v>
       </c>
       <c r="H679" t="s">
         <v>11</v>
@@ -16604,7 +16610,7 @@
         <v>8</v>
       </c>
       <c r="B680" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C680">
         <v>3</v>
@@ -16613,10 +16619,10 @@
         <v>4</v>
       </c>
       <c r="E680" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F680">
-        <v>1.1100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="H680" t="s">
         <v>11</v>
@@ -16627,7 +16633,7 @@
         <v>8</v>
       </c>
       <c r="B681" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C681">
         <v>3</v>
@@ -16639,7 +16645,7 @@
         <v>14</v>
       </c>
       <c r="F681">
-        <v>4.5999999999999996</v>
+        <v>5.52</v>
       </c>
       <c r="H681" t="s">
         <v>11</v>
@@ -16650,19 +16656,19 @@
         <v>8</v>
       </c>
       <c r="B682" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C682">
         <v>3</v>
       </c>
       <c r="D682">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E682" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F682">
-        <v>3.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H682" t="s">
         <v>11</v>
@@ -16673,19 +16679,19 @@
         <v>8</v>
       </c>
       <c r="B683" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C683">
         <v>3</v>
       </c>
       <c r="D683">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E683" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F683">
-        <v>5.2</v>
+        <v>0.53</v>
       </c>
       <c r="H683" t="s">
         <v>11</v>
@@ -16696,19 +16702,19 @@
         <v>8</v>
       </c>
       <c r="B684" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C684">
         <v>3</v>
       </c>
       <c r="D684">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E684" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F684">
-        <v>3.18</v>
+        <v>0.6</v>
       </c>
       <c r="H684" t="s">
         <v>11</v>
@@ -16719,19 +16725,19 @@
         <v>8</v>
       </c>
       <c r="B685" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C685">
         <v>3</v>
       </c>
       <c r="D685">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E685" t="s">
-        <v>18</v>
-      </c>
-      <c r="G685">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
       </c>
       <c r="H685" t="s">
         <v>11</v>
@@ -16742,7 +16748,7 @@
         <v>8</v>
       </c>
       <c r="B686" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C686">
         <v>3</v>
@@ -16751,10 +16757,10 @@
         <v>5</v>
       </c>
       <c r="E686" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F686">
-        <v>1.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H686" t="s">
         <v>11</v>
@@ -16765,19 +16771,19 @@
         <v>8</v>
       </c>
       <c r="B687" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C687">
         <v>3</v>
       </c>
       <c r="D687">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E687" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F687">
-        <v>6.2</v>
+        <v>1.92</v>
       </c>
       <c r="H687" t="s">
         <v>11</v>
@@ -16788,19 +16794,19 @@
         <v>8</v>
       </c>
       <c r="B688" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C688">
         <v>3</v>
       </c>
       <c r="D688">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E688" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F688">
-        <v>1.56</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H688" t="s">
         <v>11</v>
@@ -16811,19 +16817,19 @@
         <v>8</v>
       </c>
       <c r="B689" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C689">
         <v>3</v>
       </c>
       <c r="D689">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E689" t="s">
         <v>12</v>
       </c>
       <c r="F689">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="H689" t="s">
         <v>11</v>
@@ -16834,19 +16840,19 @@
         <v>8</v>
       </c>
       <c r="B690" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C690">
         <v>3</v>
       </c>
       <c r="D690">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E690" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F690">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="H690" t="s">
         <v>11</v>
@@ -16857,19 +16863,19 @@
         <v>8</v>
       </c>
       <c r="B691" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C691">
         <v>3</v>
       </c>
       <c r="D691">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E691" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F691">
-        <v>2.6</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H691" t="s">
         <v>11</v>
@@ -16880,19 +16886,19 @@
         <v>8</v>
       </c>
       <c r="B692" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C692">
         <v>3</v>
       </c>
       <c r="D692">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E692" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F692">
-        <v>2.19</v>
+        <v>6.6</v>
       </c>
       <c r="H692" t="s">
         <v>11</v>
@@ -16903,19 +16909,19 @@
         <v>8</v>
       </c>
       <c r="B693" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C693">
         <v>3</v>
       </c>
       <c r="D693">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E693" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F693">
-        <v>2.2999999999999998</v>
+        <v>6.65</v>
       </c>
       <c r="H693" t="s">
         <v>11</v>
@@ -16926,19 +16932,19 @@
         <v>8</v>
       </c>
       <c r="B694" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C694">
         <v>3</v>
       </c>
       <c r="D694">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E694" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F694">
-        <v>1.34</v>
+        <v>0.48</v>
       </c>
       <c r="H694" t="s">
         <v>11</v>
@@ -16949,19 +16955,19 @@
         <v>8</v>
       </c>
       <c r="B695" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C695">
         <v>3</v>
       </c>
       <c r="D695">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E695" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F695">
-        <v>1.9</v>
+        <v>0.48</v>
       </c>
       <c r="H695" t="s">
         <v>11</v>
@@ -16972,19 +16978,19 @@
         <v>8</v>
       </c>
       <c r="B696" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C696">
         <v>3</v>
       </c>
       <c r="D696">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E696" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F696">
-        <v>2.5</v>
+        <v>7.37</v>
       </c>
       <c r="H696" t="s">
         <v>11</v>
@@ -16995,19 +17001,19 @@
         <v>8</v>
       </c>
       <c r="B697" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C697">
         <v>3</v>
       </c>
       <c r="D697">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E697" t="s">
-        <v>18</v>
-      </c>
-      <c r="G697">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="F697">
+        <v>4.6399999999999997</v>
       </c>
       <c r="H697" t="s">
         <v>11</v>
@@ -17018,19 +17024,19 @@
         <v>8</v>
       </c>
       <c r="B698" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C698">
         <v>3</v>
       </c>
       <c r="D698">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E698" t="s">
         <v>10</v>
       </c>
       <c r="F698">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="H698" t="s">
         <v>11</v>
@@ -17041,19 +17047,19 @@
         <v>8</v>
       </c>
       <c r="B699" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C699">
         <v>3</v>
       </c>
       <c r="D699">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E699" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F699">
-        <v>7.8</v>
+        <v>0.54</v>
       </c>
       <c r="H699" t="s">
         <v>11</v>
@@ -17064,19 +17070,19 @@
         <v>8</v>
       </c>
       <c r="B700" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C700">
         <v>3</v>
       </c>
       <c r="D700">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E700" t="s">
         <v>13</v>
       </c>
       <c r="F700">
-        <v>2.27</v>
+        <v>0.8</v>
       </c>
       <c r="H700" t="s">
         <v>11</v>
@@ -17087,19 +17093,19 @@
         <v>8</v>
       </c>
       <c r="B701" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C701">
         <v>3</v>
       </c>
       <c r="D701">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E701" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F701">
-        <v>2.12</v>
+        <v>4.46</v>
       </c>
       <c r="H701" t="s">
         <v>11</v>
@@ -17110,19 +17116,19 @@
         <v>8</v>
       </c>
       <c r="B702" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C702">
         <v>3</v>
       </c>
       <c r="D702">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E702" t="s">
         <v>16</v>
       </c>
       <c r="F702">
-        <v>2.1</v>
+        <v>12.33</v>
       </c>
       <c r="H702" t="s">
         <v>11</v>
@@ -17133,19 +17139,19 @@
         <v>8</v>
       </c>
       <c r="B703" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C703">
         <v>3</v>
       </c>
       <c r="D703">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E703" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F703">
-        <v>2.75</v>
+        <v>3.84</v>
       </c>
       <c r="H703" t="s">
         <v>11</v>
@@ -17156,19 +17162,19 @@
         <v>8</v>
       </c>
       <c r="B704" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C704">
         <v>3</v>
       </c>
       <c r="D704">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E704" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F704">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H704" t="s">
         <v>11</v>
@@ -17179,22 +17185,22 @@
         <v>8</v>
       </c>
       <c r="B705" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C705">
         <v>3</v>
       </c>
       <c r="D705">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E705" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F705">
-        <v>0.73</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H705" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.2">
@@ -17202,19 +17208,19 @@
         <v>8</v>
       </c>
       <c r="B706" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C706">
         <v>3</v>
       </c>
       <c r="D706">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E706" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F706">
-        <v>1</v>
+        <v>11.44</v>
       </c>
       <c r="H706" t="s">
         <v>11</v>
@@ -17225,19 +17231,19 @@
         <v>8</v>
       </c>
       <c r="B707" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C707">
         <v>3</v>
       </c>
       <c r="D707">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E707" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F707">
-        <v>0.2</v>
+        <v>15.05</v>
       </c>
       <c r="H707" t="s">
         <v>11</v>
@@ -17248,19 +17254,19 @@
         <v>8</v>
       </c>
       <c r="B708" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C708">
         <v>3</v>
       </c>
       <c r="D708">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E708" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F708">
-        <v>3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H708" t="s">
         <v>11</v>
@@ -17271,19 +17277,19 @@
         <v>8</v>
       </c>
       <c r="B709" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C709">
         <v>3</v>
       </c>
       <c r="D709">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E709" t="s">
-        <v>18</v>
-      </c>
-      <c r="G709">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="F709">
+        <v>0.82</v>
       </c>
       <c r="H709" t="s">
         <v>11</v>
@@ -17294,19 +17300,19 @@
         <v>8</v>
       </c>
       <c r="B710" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C710">
         <v>3</v>
       </c>
       <c r="D710">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E710" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F710">
-        <v>2.8</v>
+        <v>0.63</v>
       </c>
       <c r="H710" t="s">
         <v>11</v>
@@ -17317,22 +17323,22 @@
         <v>8</v>
       </c>
       <c r="B711" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C711">
         <v>3</v>
       </c>
       <c r="D711">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E711" t="s">
         <v>14</v>
       </c>
       <c r="F711">
-        <v>6.24</v>
+        <v>14.35</v>
       </c>
       <c r="H711" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.2">
@@ -17340,19 +17346,19 @@
         <v>8</v>
       </c>
       <c r="B712" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C712">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D712">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E712" t="s">
-        <v>13</v>
-      </c>
-      <c r="F712">
-        <v>2.4</v>
+        <v>10</v>
+      </c>
+      <c r="G712">
+        <v>19.5</v>
       </c>
       <c r="H712" t="s">
         <v>11</v>
@@ -17363,22 +17369,22 @@
         <v>8</v>
       </c>
       <c r="B713" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C713">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D713">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E713" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F713">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H713" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.2">
@@ -17386,19 +17392,19 @@
         <v>8</v>
       </c>
       <c r="B714" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C714">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D714">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E714" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F714">
-        <v>1.5</v>
+        <v>2.64</v>
       </c>
       <c r="H714" t="s">
         <v>11</v>
@@ -17409,19 +17415,19 @@
         <v>8</v>
       </c>
       <c r="B715" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C715">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D715">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E715" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G715">
-        <v>67</v>
+        <v>64.5</v>
       </c>
       <c r="H715" t="s">
         <v>11</v>
@@ -17432,22 +17438,22 @@
         <v>8</v>
       </c>
       <c r="B716" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C716">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D716">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E716" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F716">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="H716" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.2">
@@ -17455,19 +17461,19 @@
         <v>8</v>
       </c>
       <c r="B717" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C717">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D717">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E717" t="s">
-        <v>14</v>
-      </c>
-      <c r="G717">
-        <v>40.5</v>
+        <v>13</v>
+      </c>
+      <c r="F717">
+        <v>1.5</v>
       </c>
       <c r="H717" t="s">
         <v>11</v>
@@ -17478,19 +17484,19 @@
         <v>8</v>
       </c>
       <c r="B718" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C718">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D718">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E718" t="s">
-        <v>13</v>
-      </c>
-      <c r="F718">
-        <v>0.53</v>
+        <v>10</v>
+      </c>
+      <c r="G718">
+        <v>31.5</v>
       </c>
       <c r="H718" t="s">
         <v>11</v>
@@ -17501,22 +17507,22 @@
         <v>8</v>
       </c>
       <c r="B719" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C719">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D719">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E719" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F719">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H719" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.2">
@@ -17524,19 +17530,19 @@
         <v>8</v>
       </c>
       <c r="B720" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C720">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D720">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E720" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F720">
-        <v>6.3</v>
+        <v>2.64</v>
       </c>
       <c r="H720" t="s">
         <v>11</v>
@@ -17547,19 +17553,19 @@
         <v>8</v>
       </c>
       <c r="B721" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C721">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D721">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E721" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G721">
-        <v>65</v>
+        <v>60.5</v>
       </c>
       <c r="H721" t="s">
         <v>11</v>
@@ -17570,22 +17576,22 @@
         <v>8</v>
       </c>
       <c r="B722" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C722">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D722">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E722" t="s">
-        <v>16</v>
-      </c>
-      <c r="G722">
-        <v>26.5</v>
+        <v>14</v>
+      </c>
+      <c r="F722">
+        <v>0.56000000000000005</v>
       </c>
       <c r="H722" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.2">
@@ -17593,19 +17599,19 @@
         <v>8</v>
       </c>
       <c r="B723" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C723">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D723">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E723" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F723">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="H723" t="s">
         <v>11</v>
@@ -17616,19 +17622,19 @@
         <v>8</v>
       </c>
       <c r="B724" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C724">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D724">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E724" t="s">
-        <v>12</v>
-      </c>
-      <c r="F724">
-        <v>1.36</v>
+        <v>10</v>
+      </c>
+      <c r="G724">
+        <v>48</v>
       </c>
       <c r="H724" t="s">
         <v>11</v>
@@ -17639,22 +17645,22 @@
         <v>8</v>
       </c>
       <c r="B725" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C725">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D725">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E725" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F725">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="H725" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.2">
@@ -17662,19 +17668,19 @@
         <v>8</v>
       </c>
       <c r="B726" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C726">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D726">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E726" t="s">
-        <v>14</v>
-      </c>
-      <c r="G726">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="F726">
+        <v>3.26</v>
       </c>
       <c r="H726" t="s">
         <v>11</v>
@@ -17685,19 +17691,19 @@
         <v>8</v>
       </c>
       <c r="B727" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C727">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D727">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E727" t="s">
-        <v>16</v>
-      </c>
-      <c r="F727">
-        <v>5.7</v>
+        <v>10</v>
+      </c>
+      <c r="G727">
+        <v>50</v>
       </c>
       <c r="H727" t="s">
         <v>11</v>
@@ -17708,22 +17714,22 @@
         <v>8</v>
       </c>
       <c r="B728" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C728">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D728">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E728" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F728">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="H728" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.2">
@@ -17731,19 +17737,19 @@
         <v>8</v>
       </c>
       <c r="B729" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C729">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D729">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E729" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F729">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="H729" t="s">
         <v>11</v>
@@ -17754,19 +17760,19 @@
         <v>8</v>
       </c>
       <c r="B730" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C730">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D730">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E730" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F730">
-        <v>0.56999999999999995</v>
+        <v>7.5</v>
       </c>
       <c r="H730" t="s">
         <v>11</v>
@@ -17777,22 +17783,22 @@
         <v>8</v>
       </c>
       <c r="B731" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C731">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D731">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E731" t="s">
         <v>14</v>
       </c>
-      <c r="G731">
-        <v>17</v>
+      <c r="F731">
+        <v>0.47</v>
       </c>
       <c r="H731" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.2">
@@ -17800,19 +17806,19 @@
         <v>8</v>
       </c>
       <c r="B732" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C732">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D732">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E732" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F732">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="H732" t="s">
         <v>11</v>
@@ -17823,19 +17829,19 @@
         <v>8</v>
       </c>
       <c r="B733" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C733">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D733">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E733" t="s">
         <v>10</v>
       </c>
-      <c r="F733">
-        <v>4.2699999999999996</v>
+      <c r="G733">
+        <v>42.5</v>
       </c>
       <c r="H733" t="s">
         <v>11</v>
@@ -17846,22 +17852,22 @@
         <v>8</v>
       </c>
       <c r="B734" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C734">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D734">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E734" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F734">
-        <v>1.44</v>
+        <v>0.62</v>
       </c>
       <c r="H734" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.2">
@@ -17869,19 +17875,19 @@
         <v>8</v>
       </c>
       <c r="B735" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C735">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D735">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E735" t="s">
         <v>13</v>
       </c>
       <c r="F735">
-        <v>1.9</v>
+        <v>2.97</v>
       </c>
       <c r="H735" t="s">
         <v>11</v>
@@ -17892,19 +17898,19 @@
         <v>8</v>
       </c>
       <c r="B736" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C736">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D736">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E736" t="s">
-        <v>14</v>
-      </c>
-      <c r="F736">
-        <v>5.67</v>
+        <v>10</v>
+      </c>
+      <c r="G736">
+        <v>36.5</v>
       </c>
       <c r="H736" t="s">
         <v>11</v>
@@ -17915,22 +17921,22 @@
         <v>8</v>
       </c>
       <c r="B737" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C737">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D737">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E737" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F737">
-        <v>5.56</v>
+        <v>0.43</v>
       </c>
       <c r="H737" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.2">
@@ -17938,19 +17944,19 @@
         <v>8</v>
       </c>
       <c r="B738" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C738">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D738">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E738" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F738">
-        <v>1.2</v>
+        <v>2.83</v>
       </c>
       <c r="H738" t="s">
         <v>11</v>
@@ -17961,19 +17967,19 @@
         <v>8</v>
       </c>
       <c r="B739" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C739">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D739">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E739" t="s">
-        <v>12</v>
-      </c>
-      <c r="F739">
-        <v>1.68</v>
+        <v>10</v>
+      </c>
+      <c r="G739">
+        <v>54.5</v>
       </c>
       <c r="H739" t="s">
         <v>11</v>
@@ -17984,22 +17990,22 @@
         <v>8</v>
       </c>
       <c r="B740" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C740">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D740">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E740" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F740">
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
       <c r="H740" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.2">
@@ -18007,19 +18013,19 @@
         <v>8</v>
       </c>
       <c r="B741" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C741">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D741">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E741" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F741">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="H741" t="s">
         <v>11</v>
@@ -18030,22 +18036,22 @@
         <v>8</v>
       </c>
       <c r="B742" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C742">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D742">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E742" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F742">
-        <v>9.6999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="H742" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.2">
@@ -18053,19 +18059,19 @@
         <v>8</v>
       </c>
       <c r="B743" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C743">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D743">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E743" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F743">
-        <v>0.53</v>
+        <v>3.05</v>
       </c>
       <c r="H743" t="s">
         <v>11</v>
@@ -18076,19 +18082,19 @@
         <v>8</v>
       </c>
       <c r="B744" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C744">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D744">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E744" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F744">
-        <v>0.6</v>
+        <v>1.51</v>
       </c>
       <c r="H744" t="s">
         <v>11</v>
@@ -18099,22 +18105,22 @@
         <v>8</v>
       </c>
       <c r="B745" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C745">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D745">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E745" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F745">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="H745" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.2">
@@ -18122,19 +18128,19 @@
         <v>8</v>
       </c>
       <c r="B746" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C746">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D746">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E746" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F746">
-        <v>8.8000000000000007</v>
+        <v>1.06</v>
       </c>
       <c r="H746" t="s">
         <v>11</v>
@@ -18145,19 +18151,19 @@
         <v>8</v>
       </c>
       <c r="B747" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C747">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D747">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E747" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F747">
-        <v>1.92</v>
+        <v>4.92</v>
       </c>
       <c r="H747" t="s">
         <v>11</v>
@@ -18168,22 +18174,22 @@
         <v>8</v>
       </c>
       <c r="B748" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C748">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D748">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E748" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F748">
-        <v>5.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="H748" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.2">
@@ -18191,19 +18197,19 @@
         <v>8</v>
       </c>
       <c r="B749" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C749">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D749">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E749" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F749">
-        <v>0.93</v>
+        <v>1.7</v>
       </c>
       <c r="H749" t="s">
         <v>11</v>
@@ -18214,19 +18220,19 @@
         <v>8</v>
       </c>
       <c r="B750" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C750">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D750">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E750" t="s">
-        <v>13</v>
-      </c>
-      <c r="F750">
-        <v>1.24</v>
+        <v>10</v>
+      </c>
+      <c r="G750">
+        <v>46</v>
       </c>
       <c r="H750" t="s">
         <v>11</v>
@@ -18237,22 +18243,22 @@
         <v>8</v>
       </c>
       <c r="B751" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C751">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D751">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E751" t="s">
         <v>14</v>
       </c>
       <c r="F751">
-        <v>2.2599999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="H751" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.2">
@@ -18260,19 +18266,19 @@
         <v>8</v>
       </c>
       <c r="B752" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C752">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D752">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E752" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F752">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="H752" t="s">
         <v>11</v>
@@ -18283,19 +18289,19 @@
         <v>8</v>
       </c>
       <c r="B753" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C753">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D753">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E753" t="s">
         <v>10</v>
       </c>
       <c r="F753">
-        <v>6.65</v>
+        <v>10.39</v>
       </c>
       <c r="H753" t="s">
         <v>11</v>
@@ -18306,22 +18312,22 @@
         <v>8</v>
       </c>
       <c r="B754" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C754">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D754">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E754" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F754">
-        <v>0.48</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H754" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.2">
@@ -18329,19 +18335,19 @@
         <v>8</v>
       </c>
       <c r="B755" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C755">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D755">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E755" t="s">
         <v>13</v>
       </c>
       <c r="F755">
-        <v>0.48</v>
+        <v>2.74</v>
       </c>
       <c r="H755" t="s">
         <v>11</v>
@@ -18352,19 +18358,19 @@
         <v>8</v>
       </c>
       <c r="B756" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C756">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D756">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E756" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F756">
-        <v>7.37</v>
+        <v>2.33</v>
       </c>
       <c r="H756" t="s">
         <v>11</v>
@@ -18375,22 +18381,22 @@
         <v>8</v>
       </c>
       <c r="B757" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C757">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D757">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E757" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F757">
-        <v>4.6399999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H757" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.2">
@@ -18398,19 +18404,19 @@
         <v>8</v>
       </c>
       <c r="B758" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C758">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D758">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E758" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F758">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H758" t="s">
         <v>11</v>
@@ -18421,19 +18427,19 @@
         <v>8</v>
       </c>
       <c r="B759" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C759">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D759">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E759" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F759">
-        <v>0.54</v>
+        <v>3.64</v>
       </c>
       <c r="H759" t="s">
         <v>11</v>
@@ -18444,22 +18450,22 @@
         <v>8</v>
       </c>
       <c r="B760" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C760">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D760">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E760" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F760">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H760" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.2">
@@ -18467,19 +18473,19 @@
         <v>8</v>
       </c>
       <c r="B761" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C761">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D761">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E761" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F761">
-        <v>4.46</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H761" t="s">
         <v>11</v>
@@ -18490,19 +18496,19 @@
         <v>8</v>
       </c>
       <c r="B762" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C762">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D762">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E762" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F762">
-        <v>12.33</v>
+        <v>3.94</v>
       </c>
       <c r="H762" t="s">
         <v>11</v>
@@ -18513,22 +18519,22 @@
         <v>8</v>
       </c>
       <c r="B763" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C763">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D763">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E763" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F763">
-        <v>3.84</v>
+        <v>0.53</v>
       </c>
       <c r="H763" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.2">
@@ -18536,19 +18542,19 @@
         <v>8</v>
       </c>
       <c r="B764" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C764">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D764">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E764" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F764">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H764" t="s">
         <v>11</v>
@@ -18559,19 +18565,19 @@
         <v>8</v>
       </c>
       <c r="B765" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C765">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D765">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E765" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F765">
-        <v>1.1499999999999999</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="H765" t="s">
         <v>11</v>
@@ -18582,10 +18588,10 @@
         <v>8</v>
       </c>
       <c r="B766" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C766">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D766">
         <v>9</v>
@@ -18594,7 +18600,7 @@
         <v>14</v>
       </c>
       <c r="F766">
-        <v>11.44</v>
+        <v>0.64</v>
       </c>
       <c r="H766" t="s">
         <v>11</v>
@@ -18605,19 +18611,19 @@
         <v>8</v>
       </c>
       <c r="B767" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C767">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D767">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E767" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F767">
-        <v>15.05</v>
+        <v>3.6</v>
       </c>
       <c r="H767" t="s">
         <v>11</v>
@@ -18628,19 +18634,19 @@
         <v>8</v>
       </c>
       <c r="B768" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C768">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D768">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E768" t="s">
         <v>10</v>
       </c>
       <c r="F768">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="H768" t="s">
         <v>11</v>
@@ -18651,19 +18657,19 @@
         <v>8</v>
       </c>
       <c r="B769" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C769">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D769">
         <v>10</v>
       </c>
       <c r="E769" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F769">
-        <v>0.82</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H769" t="s">
         <v>11</v>
@@ -18674,10 +18680,10 @@
         <v>8</v>
       </c>
       <c r="B770" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C770">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D770">
         <v>10</v>
@@ -18686,7 +18692,7 @@
         <v>13</v>
       </c>
       <c r="F770">
-        <v>0.63</v>
+        <v>1.71</v>
       </c>
       <c r="H770" t="s">
         <v>11</v>
@@ -18697,19 +18703,19 @@
         <v>8</v>
       </c>
       <c r="B771" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C771">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D771">
         <v>10</v>
       </c>
       <c r="E771" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F771">
-        <v>14.35</v>
+        <v>5.91</v>
       </c>
       <c r="H771" t="s">
         <v>11</v>
@@ -18720,7 +18726,7 @@
         <v>8</v>
       </c>
       <c r="B772" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C772">
         <v>1</v>
@@ -18731,8 +18737,8 @@
       <c r="E772" t="s">
         <v>10</v>
       </c>
-      <c r="G772">
-        <v>19.5</v>
+      <c r="F772">
+        <v>0.7</v>
       </c>
       <c r="H772" t="s">
         <v>11</v>
@@ -18743,7 +18749,7 @@
         <v>8</v>
       </c>
       <c r="B773" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C773">
         <v>1</v>
@@ -18755,7 +18761,7 @@
         <v>14</v>
       </c>
       <c r="F773">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H773" t="s">
         <v>15</v>
@@ -18766,7 +18772,7 @@
         <v>8</v>
       </c>
       <c r="B774" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C774">
         <v>1</v>
@@ -18778,7 +18784,7 @@
         <v>13</v>
       </c>
       <c r="F774">
-        <v>2.64</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H774" t="s">
         <v>11</v>
@@ -18789,19 +18795,19 @@
         <v>8</v>
       </c>
       <c r="B775" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C775">
         <v>1</v>
       </c>
       <c r="D775">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E775" t="s">
-        <v>10</v>
-      </c>
-      <c r="G775">
-        <v>64.5</v>
+        <v>12</v>
+      </c>
+      <c r="F775">
+        <v>5.24</v>
       </c>
       <c r="H775" t="s">
         <v>11</v>
@@ -18812,7 +18818,7 @@
         <v>8</v>
       </c>
       <c r="B776" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C776">
         <v>1</v>
@@ -18821,13 +18827,13 @@
         <v>2</v>
       </c>
       <c r="E776" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F776">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H776" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.2">
@@ -18835,7 +18841,7 @@
         <v>8</v>
       </c>
       <c r="B777" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C777">
         <v>1</v>
@@ -18844,13 +18850,13 @@
         <v>2</v>
       </c>
       <c r="E777" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F777">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="H777" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.2">
@@ -18858,19 +18864,19 @@
         <v>8</v>
       </c>
       <c r="B778" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C778">
         <v>1</v>
       </c>
       <c r="D778">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E778" t="s">
-        <v>10</v>
-      </c>
-      <c r="G778">
-        <v>31.5</v>
+        <v>13</v>
+      </c>
+      <c r="F778">
+        <v>0.85</v>
       </c>
       <c r="H778" t="s">
         <v>11</v>
@@ -18881,22 +18887,22 @@
         <v>8</v>
       </c>
       <c r="B779" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C779">
         <v>1</v>
       </c>
       <c r="D779">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E779" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F779">
-        <v>0.5</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H779" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.2">
@@ -18904,7 +18910,7 @@
         <v>8</v>
       </c>
       <c r="B780" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C780">
         <v>1</v>
@@ -18913,10 +18919,10 @@
         <v>3</v>
       </c>
       <c r="E780" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F780">
-        <v>2.64</v>
+        <v>0.79</v>
       </c>
       <c r="H780" t="s">
         <v>11</v>
@@ -18927,22 +18933,22 @@
         <v>8</v>
       </c>
       <c r="B781" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C781">
         <v>1</v>
       </c>
       <c r="D781">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E781" t="s">
-        <v>10</v>
-      </c>
-      <c r="G781">
-        <v>60.5</v>
+        <v>14</v>
+      </c>
+      <c r="F781">
+        <v>2</v>
       </c>
       <c r="H781" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.2">
@@ -18950,22 +18956,22 @@
         <v>8</v>
       </c>
       <c r="B782" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C782">
         <v>1</v>
       </c>
       <c r="D782">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E782" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F782">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="H782" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.2">
@@ -18973,19 +18979,19 @@
         <v>8</v>
       </c>
       <c r="B783" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C783">
         <v>1</v>
       </c>
       <c r="D783">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E783" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F783">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="H783" t="s">
         <v>11</v>
@@ -18996,19 +19002,19 @@
         <v>8</v>
       </c>
       <c r="B784" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C784">
         <v>1</v>
       </c>
       <c r="D784">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E784" t="s">
         <v>10</v>
       </c>
-      <c r="G784">
-        <v>48</v>
+      <c r="F784">
+        <v>0.51</v>
       </c>
       <c r="H784" t="s">
         <v>11</v>
@@ -19019,19 +19025,19 @@
         <v>8</v>
       </c>
       <c r="B785" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C785">
         <v>1</v>
       </c>
       <c r="D785">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E785" t="s">
         <v>14</v>
       </c>
       <c r="F785">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="H785" t="s">
         <v>15</v>
@@ -19042,19 +19048,19 @@
         <v>8</v>
       </c>
       <c r="B786" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C786">
         <v>1</v>
       </c>
       <c r="D786">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E786" t="s">
         <v>13</v>
       </c>
       <c r="F786">
-        <v>3.26</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H786" t="s">
         <v>11</v>
@@ -19065,19 +19071,19 @@
         <v>8</v>
       </c>
       <c r="B787" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C787">
         <v>1</v>
       </c>
       <c r="D787">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E787" t="s">
-        <v>10</v>
-      </c>
-      <c r="G787">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F787">
+        <v>5.3</v>
       </c>
       <c r="H787" t="s">
         <v>11</v>
@@ -19088,22 +19094,22 @@
         <v>8</v>
       </c>
       <c r="B788" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C788">
         <v>1</v>
       </c>
       <c r="D788">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E788" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F788">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="H788" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.2">
@@ -19111,19 +19117,19 @@
         <v>8</v>
       </c>
       <c r="B789" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C789">
         <v>1</v>
       </c>
       <c r="D789">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E789" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F789">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="H789" t="s">
         <v>11</v>
@@ -19134,19 +19140,19 @@
         <v>8</v>
       </c>
       <c r="B790" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C790">
         <v>1</v>
       </c>
       <c r="D790">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E790" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F790">
-        <v>7.5</v>
+        <v>1.04</v>
       </c>
       <c r="H790" t="s">
         <v>11</v>
@@ -19157,22 +19163,22 @@
         <v>8</v>
       </c>
       <c r="B791" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C791">
         <v>1</v>
       </c>
       <c r="D791">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E791" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F791">
-        <v>0.47</v>
+        <v>2.9</v>
       </c>
       <c r="H791" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.2">
@@ -19180,19 +19186,19 @@
         <v>8</v>
       </c>
       <c r="B792" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C792">
         <v>1</v>
       </c>
       <c r="D792">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E792" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F792">
-        <v>2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H792" t="s">
         <v>11</v>
@@ -19203,22 +19209,22 @@
         <v>8</v>
       </c>
       <c r="B793" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C793">
         <v>1</v>
       </c>
       <c r="D793">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E793" t="s">
-        <v>10</v>
-      </c>
-      <c r="G793">
-        <v>42.5</v>
+        <v>14</v>
+      </c>
+      <c r="F793">
+        <v>2.83</v>
       </c>
       <c r="H793" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.2">
@@ -19226,22 +19232,22 @@
         <v>8</v>
       </c>
       <c r="B794" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C794">
         <v>1</v>
       </c>
       <c r="D794">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E794" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F794">
-        <v>0.62</v>
+        <v>1.75</v>
       </c>
       <c r="H794" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.2">
@@ -19249,19 +19255,19 @@
         <v>8</v>
       </c>
       <c r="B795" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C795">
         <v>1</v>
       </c>
       <c r="D795">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E795" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F795">
-        <v>2.97</v>
+        <v>3.89</v>
       </c>
       <c r="H795" t="s">
         <v>11</v>
@@ -19272,19 +19278,19 @@
         <v>8</v>
       </c>
       <c r="B796" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C796">
         <v>1</v>
       </c>
       <c r="D796">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E796" t="s">
         <v>10</v>
       </c>
-      <c r="G796">
-        <v>36.5</v>
+      <c r="F796">
+        <v>1.46</v>
       </c>
       <c r="H796" t="s">
         <v>11</v>
@@ -19295,19 +19301,19 @@
         <v>8</v>
       </c>
       <c r="B797" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C797">
         <v>1</v>
       </c>
       <c r="D797">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E797" t="s">
         <v>14</v>
       </c>
       <c r="F797">
-        <v>0.43</v>
+        <v>2.7</v>
       </c>
       <c r="H797" t="s">
         <v>15</v>
@@ -19318,19 +19324,19 @@
         <v>8</v>
       </c>
       <c r="B798" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C798">
         <v>1</v>
       </c>
       <c r="D798">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E798" t="s">
         <v>13</v>
       </c>
       <c r="F798">
-        <v>2.83</v>
+        <v>1.46</v>
       </c>
       <c r="H798" t="s">
         <v>11</v>
@@ -19341,19 +19347,19 @@
         <v>8</v>
       </c>
       <c r="B799" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C799">
         <v>1</v>
       </c>
       <c r="D799">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E799" t="s">
-        <v>10</v>
-      </c>
-      <c r="G799">
-        <v>54.5</v>
+        <v>12</v>
+      </c>
+      <c r="F799">
+        <v>3.88</v>
       </c>
       <c r="H799" t="s">
         <v>11</v>
@@ -19364,22 +19370,22 @@
         <v>8</v>
       </c>
       <c r="B800" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C800">
         <v>1</v>
       </c>
       <c r="D800">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E800" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F800">
-        <v>0.83</v>
+        <v>1.56</v>
       </c>
       <c r="H800" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.2">
@@ -19387,22 +19393,22 @@
         <v>8</v>
       </c>
       <c r="B801" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C801">
         <v>1</v>
       </c>
       <c r="D801">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E801" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F801">
-        <v>5.5</v>
+        <v>1.61</v>
       </c>
       <c r="H801" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.2">
@@ -19410,22 +19416,22 @@
         <v>8</v>
       </c>
       <c r="B802" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C802">
         <v>1</v>
       </c>
       <c r="D802">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E802" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F802">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="H802" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.2">
@@ -19433,19 +19439,19 @@
         <v>8</v>
       </c>
       <c r="B803" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C803">
         <v>1</v>
       </c>
       <c r="D803">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E803" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F803">
-        <v>3.05</v>
+        <v>3.96</v>
       </c>
       <c r="H803" t="s">
         <v>11</v>
@@ -19456,19 +19462,19 @@
         <v>8</v>
       </c>
       <c r="B804" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C804">
         <v>1</v>
       </c>
       <c r="D804">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E804" t="s">
         <v>10</v>
       </c>
       <c r="F804">
-        <v>1.51</v>
+        <v>0.77</v>
       </c>
       <c r="H804" t="s">
         <v>11</v>
@@ -19479,19 +19485,19 @@
         <v>8</v>
       </c>
       <c r="B805" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C805">
         <v>1</v>
       </c>
       <c r="D805">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E805" t="s">
         <v>14</v>
       </c>
       <c r="F805">
-        <v>0.59</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H805" t="s">
         <v>15</v>
@@ -19502,19 +19508,19 @@
         <v>8</v>
       </c>
       <c r="B806" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C806">
         <v>1</v>
       </c>
       <c r="D806">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E806" t="s">
         <v>13</v>
       </c>
       <c r="F806">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="H806" t="s">
         <v>11</v>
@@ -19525,19 +19531,19 @@
         <v>8</v>
       </c>
       <c r="B807" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C807">
         <v>1</v>
       </c>
       <c r="D807">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E807" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F807">
-        <v>4.92</v>
+        <v>4.3</v>
       </c>
       <c r="H807" t="s">
         <v>11</v>
@@ -19548,22 +19554,22 @@
         <v>8</v>
       </c>
       <c r="B808" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C808">
         <v>1</v>
       </c>
       <c r="D808">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E808" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F808">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="H808" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.2">
@@ -19571,19 +19577,19 @@
         <v>8</v>
       </c>
       <c r="B809" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C809">
         <v>1</v>
       </c>
       <c r="D809">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E809" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F809">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H809" t="s">
         <v>11</v>
@@ -19594,19 +19600,19 @@
         <v>8</v>
       </c>
       <c r="B810" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C810">
         <v>1</v>
       </c>
       <c r="D810">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E810" t="s">
-        <v>10</v>
-      </c>
-      <c r="G810">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="F810">
+        <v>2.14</v>
       </c>
       <c r="H810" t="s">
         <v>11</v>
@@ -19617,22 +19623,22 @@
         <v>8</v>
       </c>
       <c r="B811" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C811">
         <v>1</v>
       </c>
       <c r="D811">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E811" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F811">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="H811" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.2">
@@ -19640,19 +19646,22 @@
         <v>8</v>
       </c>
       <c r="B812" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C812">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D812">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E812" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F812">
-        <v>5</v>
+        <v>1.6</v>
+      </c>
+      <c r="G812" t="s">
+        <v>36</v>
       </c>
       <c r="H812" t="s">
         <v>11</v>
@@ -19663,19 +19672,22 @@
         <v>8</v>
       </c>
       <c r="B813" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C813">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D813">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E813" t="s">
-        <v>10</v>
-      </c>
-      <c r="F813">
-        <v>10.39</v>
+        <v>14</v>
+      </c>
+      <c r="F813" t="s">
+        <v>36</v>
+      </c>
+      <c r="G813">
+        <v>31.5</v>
       </c>
       <c r="H813" t="s">
         <v>11</v>
@@ -19686,22 +19698,25 @@
         <v>8</v>
       </c>
       <c r="B814" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C814">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D814">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E814" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F814">
-        <v>1.1299999999999999</v>
+        <v>0.47</v>
+      </c>
+      <c r="G814" t="s">
+        <v>36</v>
       </c>
       <c r="H814" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.2">
@@ -19709,19 +19724,22 @@
         <v>8</v>
       </c>
       <c r="B815" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C815">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D815">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E815" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F815">
-        <v>2.74</v>
+        <v>1.88</v>
+      </c>
+      <c r="G815" t="s">
+        <v>36</v>
       </c>
       <c r="H815" t="s">
         <v>11</v>
@@ -19732,19 +19750,22 @@
         <v>8</v>
       </c>
       <c r="B816" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C816">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D816">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E816" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F816">
-        <v>2.33</v>
+        <v>3.1</v>
+      </c>
+      <c r="G816" t="s">
+        <v>36</v>
       </c>
       <c r="H816" t="s">
         <v>11</v>
@@ -19755,22 +19776,25 @@
         <v>8</v>
       </c>
       <c r="B817" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C817">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D817">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E817" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F817">
-        <v>0.28000000000000003</v>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="G817" t="s">
+        <v>36</v>
       </c>
       <c r="H817" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.2">
@@ -19778,19 +19802,22 @@
         <v>8</v>
       </c>
       <c r="B818" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C818">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D818">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E818" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F818">
-        <v>1.1000000000000001</v>
+        <v>3.62</v>
+      </c>
+      <c r="G818" t="s">
+        <v>36</v>
       </c>
       <c r="H818" t="s">
         <v>11</v>
@@ -19801,19 +19828,22 @@
         <v>8</v>
       </c>
       <c r="B819" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C819">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D819">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E819" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F819">
-        <v>3.64</v>
+        <v>5.05</v>
+      </c>
+      <c r="G819" t="s">
+        <v>36</v>
       </c>
       <c r="H819" t="s">
         <v>11</v>
@@ -19824,22 +19854,25 @@
         <v>8</v>
       </c>
       <c r="B820" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C820">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D820">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E820" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F820">
-        <v>0.56999999999999995</v>
+        <v>1.6</v>
+      </c>
+      <c r="G820" t="s">
+        <v>36</v>
       </c>
       <c r="H820" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.2">
@@ -19847,19 +19880,22 @@
         <v>8</v>
       </c>
       <c r="B821" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C821">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D821">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E821" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F821">
-        <v>2.2000000000000002</v>
+        <v>1.92</v>
+      </c>
+      <c r="G821" t="s">
+        <v>36</v>
       </c>
       <c r="H821" t="s">
         <v>11</v>
@@ -19870,19 +19906,22 @@
         <v>8</v>
       </c>
       <c r="B822" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C822">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D822">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E822" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F822">
-        <v>3.94</v>
+        <v>3.4</v>
+      </c>
+      <c r="G822" t="s">
+        <v>36</v>
       </c>
       <c r="H822" t="s">
         <v>11</v>
@@ -19893,22 +19932,25 @@
         <v>8</v>
       </c>
       <c r="B823" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C823">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D823">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E823" t="s">
-        <v>14</v>
-      </c>
-      <c r="F823">
-        <v>0.53</v>
+        <v>18</v>
+      </c>
+      <c r="F823" t="s">
+        <v>36</v>
+      </c>
+      <c r="G823">
+        <v>46</v>
       </c>
       <c r="H823" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.2">
@@ -19916,19 +19958,22 @@
         <v>8</v>
       </c>
       <c r="B824" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C824">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D824">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E824" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F824">
-        <v>1.7</v>
+        <v>3.2</v>
+      </c>
+      <c r="G824" t="s">
+        <v>36</v>
       </c>
       <c r="H824" t="s">
         <v>11</v>
@@ -19939,22 +19984,25 @@
         <v>8</v>
       </c>
       <c r="B825" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C825">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D825">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E825" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F825">
-        <v>5.0199999999999996</v>
+        <v>1.96</v>
+      </c>
+      <c r="G825" t="s">
+        <v>36</v>
       </c>
       <c r="H825" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.2">
@@ -19962,19 +20010,22 @@
         <v>8</v>
       </c>
       <c r="B826" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C826">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D826">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E826" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F826">
-        <v>0.64</v>
+        <v>1.82</v>
+      </c>
+      <c r="G826" t="s">
+        <v>36</v>
       </c>
       <c r="H826" t="s">
         <v>11</v>
@@ -19985,19 +20036,22 @@
         <v>8</v>
       </c>
       <c r="B827" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C827">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D827">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E827" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F827">
-        <v>3.6</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G827" t="s">
+        <v>36</v>
       </c>
       <c r="H827" t="s">
         <v>11</v>
@@ -20008,19 +20062,22 @@
         <v>8</v>
       </c>
       <c r="B828" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C828">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D828">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E828" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F828">
-        <v>3.8</v>
+        <v>3.1</v>
+      </c>
+      <c r="G828" t="s">
+        <v>36</v>
       </c>
       <c r="H828" t="s">
         <v>11</v>
@@ -20031,19 +20088,22 @@
         <v>8</v>
       </c>
       <c r="B829" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C829">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D829">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E829" t="s">
-        <v>14</v>
-      </c>
-      <c r="F829">
-        <v>1.1100000000000001</v>
+        <v>18</v>
+      </c>
+      <c r="F829" t="s">
+        <v>36</v>
+      </c>
+      <c r="G829">
+        <v>30.5</v>
       </c>
       <c r="H829" t="s">
         <v>11</v>
@@ -20054,19 +20114,22 @@
         <v>8</v>
       </c>
       <c r="B830" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C830">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D830">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E830" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F830">
-        <v>1.71</v>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G830" t="s">
+        <v>36</v>
       </c>
       <c r="H830" t="s">
         <v>11</v>
@@ -20077,19 +20140,22 @@
         <v>8</v>
       </c>
       <c r="B831" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C831">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D831">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E831" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F831">
-        <v>5.91</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G831" t="s">
+        <v>36</v>
       </c>
       <c r="H831" t="s">
         <v>11</v>
@@ -20106,13 +20172,16 @@
         <v>3</v>
       </c>
       <c r="D832">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E832" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F832">
-        <v>0.7</v>
+        <v>3.7</v>
+      </c>
+      <c r="G832" t="s">
+        <v>36</v>
       </c>
       <c r="H832" t="s">
         <v>11</v>
@@ -20129,16 +20198,19 @@
         <v>3</v>
       </c>
       <c r="D833">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E833" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F833">
-        <v>3.6</v>
+        <v>5.2</v>
+      </c>
+      <c r="G833" t="s">
+        <v>36</v>
       </c>
       <c r="H833" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.2">
@@ -20152,13 +20224,16 @@
         <v>3</v>
       </c>
       <c r="D834">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E834" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F834">
-        <v>2.2000000000000002</v>
+        <v>3.18</v>
+      </c>
+      <c r="G834" t="s">
+        <v>36</v>
       </c>
       <c r="H834" t="s">
         <v>11</v>
@@ -20175,13 +20250,16 @@
         <v>3</v>
       </c>
       <c r="D835">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E835" t="s">
-        <v>12</v>
-      </c>
-      <c r="F835">
-        <v>5.24</v>
+        <v>18</v>
+      </c>
+      <c r="F835" t="s">
+        <v>36</v>
+      </c>
+      <c r="G835">
+        <v>60</v>
       </c>
       <c r="H835" t="s">
         <v>11</v>
@@ -20198,13 +20276,16 @@
         <v>3</v>
       </c>
       <c r="D836">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E836" t="s">
         <v>10</v>
       </c>
       <c r="F836">
-        <v>0.7</v>
+        <v>1.9</v>
+      </c>
+      <c r="G836" t="s">
+        <v>36</v>
       </c>
       <c r="H836" t="s">
         <v>11</v>
@@ -20221,16 +20302,19 @@
         <v>3</v>
       </c>
       <c r="D837">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E837" t="s">
         <v>14</v>
       </c>
       <c r="F837">
-        <v>1.06</v>
+        <v>6.2</v>
+      </c>
+      <c r="G837" t="s">
+        <v>36</v>
       </c>
       <c r="H837" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.2">
@@ -20244,13 +20328,16 @@
         <v>3</v>
       </c>
       <c r="D838">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E838" t="s">
         <v>13</v>
       </c>
       <c r="F838">
-        <v>0.85</v>
+        <v>1.56</v>
+      </c>
+      <c r="G838" t="s">
+        <v>36</v>
       </c>
       <c r="H838" t="s">
         <v>11</v>
@@ -20267,13 +20354,16 @@
         <v>3</v>
       </c>
       <c r="D839">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E839" t="s">
         <v>12</v>
       </c>
       <c r="F839">
-        <v>2.2400000000000002</v>
+        <v>0.87</v>
+      </c>
+      <c r="G839" t="s">
+        <v>36</v>
       </c>
       <c r="H839" t="s">
         <v>11</v>
@@ -20290,13 +20380,16 @@
         <v>3</v>
       </c>
       <c r="D840">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E840" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F840">
-        <v>0.79</v>
+        <v>1.56</v>
+      </c>
+      <c r="G840" t="s">
+        <v>36</v>
       </c>
       <c r="H840" t="s">
         <v>11</v>
@@ -20313,16 +20406,19 @@
         <v>3</v>
       </c>
       <c r="D841">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E841" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F841">
-        <v>2</v>
+        <v>2.6</v>
+      </c>
+      <c r="G841" t="s">
+        <v>36</v>
       </c>
       <c r="H841" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.2">
@@ -20336,13 +20432,16 @@
         <v>3</v>
       </c>
       <c r="D842">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E842" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F842">
-        <v>0.7</v>
+        <v>2.19</v>
+      </c>
+      <c r="G842" t="s">
+        <v>36</v>
       </c>
       <c r="H842" t="s">
         <v>11</v>
@@ -20359,13 +20458,16 @@
         <v>3</v>
       </c>
       <c r="D843">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E843" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F843">
-        <v>3</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G843" t="s">
+        <v>36</v>
       </c>
       <c r="H843" t="s">
         <v>11</v>
@@ -20382,13 +20484,16 @@
         <v>3</v>
       </c>
       <c r="D844">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E844" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F844">
-        <v>0.51</v>
+        <v>1.34</v>
+      </c>
+      <c r="G844" t="s">
+        <v>36</v>
       </c>
       <c r="H844" t="s">
         <v>11</v>
@@ -20405,16 +20510,19 @@
         <v>3</v>
       </c>
       <c r="D845">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E845" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F845">
-        <v>0.82</v>
+        <v>1.9</v>
+      </c>
+      <c r="G845" t="s">
+        <v>36</v>
       </c>
       <c r="H845" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.2">
@@ -20428,13 +20536,16 @@
         <v>3</v>
       </c>
       <c r="D846">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E846" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F846">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
+      </c>
+      <c r="G846" t="s">
+        <v>36</v>
       </c>
       <c r="H846" t="s">
         <v>11</v>
@@ -20451,13 +20562,16 @@
         <v>3</v>
       </c>
       <c r="D847">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E847" t="s">
-        <v>12</v>
-      </c>
-      <c r="F847">
-        <v>5.3</v>
+        <v>18</v>
+      </c>
+      <c r="F847" t="s">
+        <v>36</v>
+      </c>
+      <c r="G847">
+        <v>31</v>
       </c>
       <c r="H847" t="s">
         <v>11</v>
@@ -20474,13 +20588,16 @@
         <v>3</v>
       </c>
       <c r="D848">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E848" t="s">
         <v>10</v>
       </c>
       <c r="F848">
-        <v>1.08</v>
+        <v>2.85</v>
+      </c>
+      <c r="G848" t="s">
+        <v>36</v>
       </c>
       <c r="H848" t="s">
         <v>11</v>
@@ -20497,13 +20614,16 @@
         <v>3</v>
       </c>
       <c r="D849">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E849" t="s">
         <v>14</v>
       </c>
       <c r="F849">
-        <v>2.66</v>
+        <v>7.8</v>
+      </c>
+      <c r="G849" t="s">
+        <v>36</v>
       </c>
       <c r="H849" t="s">
         <v>11</v>
@@ -20520,13 +20640,16 @@
         <v>3</v>
       </c>
       <c r="D850">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E850" t="s">
         <v>13</v>
       </c>
       <c r="F850">
-        <v>1.04</v>
+        <v>2.27</v>
+      </c>
+      <c r="G850" t="s">
+        <v>36</v>
       </c>
       <c r="H850" t="s">
         <v>11</v>
@@ -20543,13 +20666,16 @@
         <v>3</v>
       </c>
       <c r="D851">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E851" t="s">
         <v>12</v>
       </c>
       <c r="F851">
-        <v>2.9</v>
+        <v>2.12</v>
+      </c>
+      <c r="G851" t="s">
+        <v>36</v>
       </c>
       <c r="H851" t="s">
         <v>11</v>
@@ -20566,13 +20692,16 @@
         <v>3</v>
       </c>
       <c r="D852">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E852" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F852">
-        <v>1.1200000000000001</v>
+        <v>2.1</v>
+      </c>
+      <c r="G852" t="s">
+        <v>36</v>
       </c>
       <c r="H852" t="s">
         <v>11</v>
@@ -20589,16 +20718,19 @@
         <v>3</v>
       </c>
       <c r="D853">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E853" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F853">
-        <v>2.83</v>
+        <v>2.75</v>
+      </c>
+      <c r="G853" t="s">
+        <v>36</v>
       </c>
       <c r="H853" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.2">
@@ -20612,13 +20744,16 @@
         <v>3</v>
       </c>
       <c r="D854">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E854" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F854">
-        <v>1.75</v>
+        <v>4.2</v>
+      </c>
+      <c r="G854" t="s">
+        <v>36</v>
       </c>
       <c r="H854" t="s">
         <v>11</v>
@@ -20635,16 +20770,19 @@
         <v>3</v>
       </c>
       <c r="D855">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E855" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F855">
-        <v>3.89</v>
+        <v>0.73</v>
+      </c>
+      <c r="G855" t="s">
+        <v>36</v>
       </c>
       <c r="H855" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.2">
@@ -20658,13 +20796,16 @@
         <v>3</v>
       </c>
       <c r="D856">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E856" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F856">
-        <v>1.46</v>
+        <v>1</v>
+      </c>
+      <c r="G856" t="s">
+        <v>36</v>
       </c>
       <c r="H856" t="s">
         <v>11</v>
@@ -20681,16 +20822,19 @@
         <v>3</v>
       </c>
       <c r="D857">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E857" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F857">
-        <v>2.7</v>
+        <v>0.2</v>
+      </c>
+      <c r="G857" t="s">
+        <v>36</v>
       </c>
       <c r="H857" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.2">
@@ -20704,13 +20848,16 @@
         <v>3</v>
       </c>
       <c r="D858">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E858" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F858">
-        <v>1.46</v>
+        <v>3</v>
+      </c>
+      <c r="G858" t="s">
+        <v>36</v>
       </c>
       <c r="H858" t="s">
         <v>11</v>
@@ -20727,13 +20874,16 @@
         <v>3</v>
       </c>
       <c r="D859">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E859" t="s">
-        <v>12</v>
-      </c>
-      <c r="F859">
-        <v>3.88</v>
+        <v>18</v>
+      </c>
+      <c r="F859" t="s">
+        <v>36</v>
+      </c>
+      <c r="G859">
+        <v>35</v>
       </c>
       <c r="H859" t="s">
         <v>11</v>
@@ -20750,13 +20900,16 @@
         <v>3</v>
       </c>
       <c r="D860">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E860" t="s">
         <v>10</v>
       </c>
       <c r="F860">
-        <v>1.56</v>
+        <v>2.8</v>
+      </c>
+      <c r="G860" t="s">
+        <v>36</v>
       </c>
       <c r="H860" t="s">
         <v>11</v>
@@ -20773,13 +20926,16 @@
         <v>3</v>
       </c>
       <c r="D861">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E861" t="s">
         <v>14</v>
       </c>
       <c r="F861">
-        <v>1.61</v>
+        <v>6.24</v>
+      </c>
+      <c r="G861" t="s">
+        <v>36</v>
       </c>
       <c r="H861" t="s">
         <v>15</v>
@@ -20796,13 +20952,16 @@
         <v>3</v>
       </c>
       <c r="D862">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E862" t="s">
         <v>13</v>
       </c>
       <c r="F862">
-        <v>0.81</v>
+        <v>2.4</v>
+      </c>
+      <c r="G862" t="s">
+        <v>36</v>
       </c>
       <c r="H862" t="s">
         <v>11</v>
@@ -20819,13 +20978,16 @@
         <v>3</v>
       </c>
       <c r="D863">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E863" t="s">
         <v>12</v>
       </c>
       <c r="F863">
-        <v>3.96</v>
+        <v>6.6</v>
+      </c>
+      <c r="G863" t="s">
+        <v>36</v>
       </c>
       <c r="H863" t="s">
         <v>11</v>
@@ -20845,10 +21007,13 @@
         <v>9</v>
       </c>
       <c r="E864" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F864">
-        <v>0.77</v>
+        <v>1.5</v>
+      </c>
+      <c r="G864" t="s">
+        <v>36</v>
       </c>
       <c r="H864" t="s">
         <v>11</v>
@@ -20868,13 +21033,16 @@
         <v>9</v>
       </c>
       <c r="E865" t="s">
-        <v>14</v>
-      </c>
-      <c r="F865">
-        <v>2.0099999999999998</v>
+        <v>18</v>
+      </c>
+      <c r="F865" t="s">
+        <v>36</v>
+      </c>
+      <c r="G865">
+        <v>67</v>
       </c>
       <c r="H865" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.2">
@@ -20888,13 +21056,16 @@
         <v>3</v>
       </c>
       <c r="D866">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E866" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F866">
-        <v>1.67</v>
+        <v>1.38</v>
+      </c>
+      <c r="G866" t="s">
+        <v>36</v>
       </c>
       <c r="H866" t="s">
         <v>11</v>
@@ -20911,13 +21082,16 @@
         <v>3</v>
       </c>
       <c r="D867">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E867" t="s">
-        <v>12</v>
-      </c>
-      <c r="F867">
-        <v>4.3</v>
+        <v>14</v>
+      </c>
+      <c r="F867" t="s">
+        <v>36</v>
+      </c>
+      <c r="G867">
+        <v>40.5</v>
       </c>
       <c r="H867" t="s">
         <v>11</v>
@@ -20937,10 +21111,13 @@
         <v>10</v>
       </c>
       <c r="E868" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F868">
-        <v>1.78</v>
+        <v>0.53</v>
+      </c>
+      <c r="G868" t="s">
+        <v>36</v>
       </c>
       <c r="H868" t="s">
         <v>11</v>
@@ -20960,10 +21137,13 @@
         <v>10</v>
       </c>
       <c r="E869" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F869">
-        <v>0.6</v>
+        <v>2</v>
+      </c>
+      <c r="G869" t="s">
+        <v>36</v>
       </c>
       <c r="H869" t="s">
         <v>11</v>
@@ -20983,10 +21163,13 @@
         <v>10</v>
       </c>
       <c r="E870" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F870">
-        <v>2.14</v>
+        <v>6.3</v>
+      </c>
+      <c r="G870" t="s">
+        <v>36</v>
       </c>
       <c r="H870" t="s">
         <v>11</v>
@@ -21006,1576 +21189,20 @@
         <v>10</v>
       </c>
       <c r="E871" t="s">
-        <v>12</v>
-      </c>
-      <c r="F871">
-        <v>1.92</v>
+        <v>18</v>
+      </c>
+      <c r="F871" t="s">
+        <v>36</v>
+      </c>
+      <c r="G871">
+        <v>65</v>
       </c>
       <c r="H871" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A872" t="s">
-        <v>8</v>
-      </c>
-      <c r="B872" t="s">
-        <v>35</v>
-      </c>
-      <c r="C872">
-        <v>1</v>
-      </c>
-      <c r="D872">
-        <v>1</v>
-      </c>
-      <c r="E872" t="s">
-        <v>10</v>
-      </c>
-      <c r="F872">
-        <v>1.6</v>
-      </c>
-      <c r="G872" t="s">
-        <v>36</v>
-      </c>
-      <c r="H872" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A873" t="s">
-        <v>8</v>
-      </c>
-      <c r="B873" t="s">
-        <v>35</v>
-      </c>
-      <c r="C873">
-        <v>1</v>
-      </c>
-      <c r="D873">
-        <v>1</v>
-      </c>
-      <c r="E873" t="s">
-        <v>14</v>
-      </c>
-      <c r="F873" t="s">
-        <v>36</v>
-      </c>
-      <c r="G873">
-        <v>31.5</v>
-      </c>
-      <c r="H873" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A874" t="s">
-        <v>8</v>
-      </c>
-      <c r="B874" t="s">
-        <v>35</v>
-      </c>
-      <c r="C874">
-        <v>1</v>
-      </c>
-      <c r="D874">
-        <v>1</v>
-      </c>
-      <c r="E874" t="s">
-        <v>13</v>
-      </c>
-      <c r="F874">
-        <v>0.47</v>
-      </c>
-      <c r="G874" t="s">
-        <v>36</v>
-      </c>
-      <c r="H874" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A875" t="s">
-        <v>8</v>
-      </c>
-      <c r="B875" t="s">
-        <v>35</v>
-      </c>
-      <c r="C875">
-        <v>1</v>
-      </c>
-      <c r="D875">
-        <v>1</v>
-      </c>
-      <c r="E875" t="s">
-        <v>12</v>
-      </c>
-      <c r="F875">
-        <v>1.88</v>
-      </c>
-      <c r="G875" t="s">
-        <v>36</v>
-      </c>
-      <c r="H875" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A876" t="s">
-        <v>8</v>
-      </c>
-      <c r="B876" t="s">
-        <v>35</v>
-      </c>
-      <c r="C876">
-        <v>1</v>
-      </c>
-      <c r="D876">
-        <v>1</v>
-      </c>
-      <c r="E876" t="s">
-        <v>16</v>
-      </c>
-      <c r="F876">
-        <v>3.1</v>
-      </c>
-      <c r="G876" t="s">
-        <v>36</v>
-      </c>
-      <c r="H876" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A877" t="s">
-        <v>8</v>
-      </c>
-      <c r="B877" t="s">
-        <v>35</v>
-      </c>
-      <c r="C877">
-        <v>1</v>
-      </c>
-      <c r="D877">
-        <v>1</v>
-      </c>
-      <c r="E877" t="s">
-        <v>18</v>
-      </c>
-      <c r="F877">
-        <v>16.149999999999999</v>
-      </c>
-      <c r="G877" t="s">
-        <v>36</v>
-      </c>
-      <c r="H877" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A878" t="s">
-        <v>8</v>
-      </c>
-      <c r="B878" t="s">
-        <v>35</v>
-      </c>
-      <c r="C878">
-        <v>1</v>
-      </c>
-      <c r="D878">
-        <v>2</v>
-      </c>
-      <c r="E878" t="s">
-        <v>10</v>
-      </c>
-      <c r="F878">
-        <v>3.62</v>
-      </c>
-      <c r="G878" t="s">
-        <v>36</v>
-      </c>
-      <c r="H878" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A879" t="s">
-        <v>8</v>
-      </c>
-      <c r="B879" t="s">
-        <v>35</v>
-      </c>
-      <c r="C879">
-        <v>1</v>
-      </c>
-      <c r="D879">
-        <v>2</v>
-      </c>
-      <c r="E879" t="s">
-        <v>14</v>
-      </c>
-      <c r="F879">
-        <v>5.05</v>
-      </c>
-      <c r="G879" t="s">
-        <v>36</v>
-      </c>
-      <c r="H879" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A880" t="s">
-        <v>8</v>
-      </c>
-      <c r="B880" t="s">
-        <v>35</v>
-      </c>
-      <c r="C880">
-        <v>1</v>
-      </c>
-      <c r="D880">
-        <v>2</v>
-      </c>
-      <c r="E880" t="s">
-        <v>13</v>
-      </c>
-      <c r="F880">
-        <v>1.6</v>
-      </c>
-      <c r="G880" t="s">
-        <v>36</v>
-      </c>
-      <c r="H880" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A881" t="s">
-        <v>8</v>
-      </c>
-      <c r="B881" t="s">
-        <v>35</v>
-      </c>
-      <c r="C881">
-        <v>1</v>
-      </c>
-      <c r="D881">
-        <v>2</v>
-      </c>
-      <c r="E881" t="s">
-        <v>12</v>
-      </c>
-      <c r="F881">
-        <v>1.92</v>
-      </c>
-      <c r="G881" t="s">
-        <v>36</v>
-      </c>
-      <c r="H881" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A882" t="s">
-        <v>8</v>
-      </c>
-      <c r="B882" t="s">
-        <v>35</v>
-      </c>
-      <c r="C882">
-        <v>1</v>
-      </c>
-      <c r="D882">
-        <v>2</v>
-      </c>
-      <c r="E882" t="s">
-        <v>16</v>
-      </c>
-      <c r="F882">
-        <v>3.4</v>
-      </c>
-      <c r="G882" t="s">
-        <v>36</v>
-      </c>
-      <c r="H882" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A883" t="s">
-        <v>8</v>
-      </c>
-      <c r="B883" t="s">
-        <v>35</v>
-      </c>
-      <c r="C883">
-        <v>1</v>
-      </c>
-      <c r="D883">
-        <v>2</v>
-      </c>
-      <c r="E883" t="s">
-        <v>18</v>
-      </c>
-      <c r="F883" t="s">
-        <v>36</v>
-      </c>
-      <c r="G883">
-        <v>46</v>
-      </c>
-      <c r="H883" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A884" t="s">
-        <v>8</v>
-      </c>
-      <c r="B884" t="s">
-        <v>35</v>
-      </c>
-      <c r="C884">
-        <v>1</v>
-      </c>
-      <c r="D884">
-        <v>3</v>
-      </c>
-      <c r="E884" t="s">
-        <v>10</v>
-      </c>
-      <c r="F884">
-        <v>3.2</v>
-      </c>
-      <c r="G884" t="s">
-        <v>36</v>
-      </c>
-      <c r="H884" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A885" t="s">
-        <v>8</v>
-      </c>
-      <c r="B885" t="s">
-        <v>35</v>
-      </c>
-      <c r="C885">
-        <v>1</v>
-      </c>
-      <c r="D885">
-        <v>3</v>
-      </c>
-      <c r="E885" t="s">
-        <v>14</v>
-      </c>
-      <c r="F885">
-        <v>1.96</v>
-      </c>
-      <c r="G885" t="s">
-        <v>36</v>
-      </c>
-      <c r="H885" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A886" t="s">
-        <v>8</v>
-      </c>
-      <c r="B886" t="s">
-        <v>35</v>
-      </c>
-      <c r="C886">
-        <v>1</v>
-      </c>
-      <c r="D886">
-        <v>3</v>
-      </c>
-      <c r="E886" t="s">
-        <v>13</v>
-      </c>
-      <c r="F886">
-        <v>1.82</v>
-      </c>
-      <c r="G886" t="s">
-        <v>36</v>
-      </c>
-      <c r="H886" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A887" t="s">
-        <v>8</v>
-      </c>
-      <c r="B887" t="s">
-        <v>35</v>
-      </c>
-      <c r="C887">
-        <v>1</v>
-      </c>
-      <c r="D887">
-        <v>3</v>
-      </c>
-      <c r="E887" t="s">
-        <v>12</v>
-      </c>
-      <c r="F887">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G887" t="s">
-        <v>36</v>
-      </c>
-      <c r="H887" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A888" t="s">
-        <v>8</v>
-      </c>
-      <c r="B888" t="s">
-        <v>35</v>
-      </c>
-      <c r="C888">
-        <v>1</v>
-      </c>
-      <c r="D888">
-        <v>3</v>
-      </c>
-      <c r="E888" t="s">
-        <v>16</v>
-      </c>
-      <c r="F888">
-        <v>3.1</v>
-      </c>
-      <c r="G888" t="s">
-        <v>36</v>
-      </c>
-      <c r="H888" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A889" t="s">
-        <v>8</v>
-      </c>
-      <c r="B889" t="s">
-        <v>35</v>
-      </c>
-      <c r="C889">
-        <v>1</v>
-      </c>
-      <c r="D889">
-        <v>3</v>
-      </c>
-      <c r="E889" t="s">
-        <v>18</v>
-      </c>
-      <c r="F889" t="s">
-        <v>36</v>
-      </c>
-      <c r="G889">
-        <v>30.5</v>
-      </c>
-      <c r="H889" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A890" t="s">
-        <v>8</v>
-      </c>
-      <c r="B890" t="s">
-        <v>35</v>
-      </c>
-      <c r="C890">
-        <v>1</v>
-      </c>
-      <c r="D890">
-        <v>4</v>
-      </c>
-      <c r="E890" t="s">
-        <v>10</v>
-      </c>
-      <c r="F890">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G890" t="s">
-        <v>36</v>
-      </c>
-      <c r="H890" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A891" t="s">
-        <v>8</v>
-      </c>
-      <c r="B891" t="s">
-        <v>35</v>
-      </c>
-      <c r="C891">
-        <v>1</v>
-      </c>
-      <c r="D891">
-        <v>4</v>
-      </c>
-      <c r="E891" t="s">
-        <v>14</v>
-      </c>
-      <c r="F891">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G891" t="s">
-        <v>36</v>
-      </c>
-      <c r="H891" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A892" t="s">
-        <v>8</v>
-      </c>
-      <c r="B892" t="s">
-        <v>35</v>
-      </c>
-      <c r="C892">
-        <v>1</v>
-      </c>
-      <c r="D892">
-        <v>4</v>
-      </c>
-      <c r="E892" t="s">
-        <v>13</v>
-      </c>
-      <c r="F892">
-        <v>3.7</v>
-      </c>
-      <c r="G892" t="s">
-        <v>36</v>
-      </c>
-      <c r="H892" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A893" t="s">
-        <v>8</v>
-      </c>
-      <c r="B893" t="s">
-        <v>35</v>
-      </c>
-      <c r="C893">
-        <v>1</v>
-      </c>
-      <c r="D893">
-        <v>4</v>
-      </c>
-      <c r="E893" t="s">
-        <v>12</v>
-      </c>
-      <c r="F893">
-        <v>5.2</v>
-      </c>
-      <c r="G893" t="s">
-        <v>36</v>
-      </c>
-      <c r="H893" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A894" t="s">
-        <v>8</v>
-      </c>
-      <c r="B894" t="s">
-        <v>35</v>
-      </c>
-      <c r="C894">
-        <v>1</v>
-      </c>
-      <c r="D894">
-        <v>4</v>
-      </c>
-      <c r="E894" t="s">
-        <v>16</v>
-      </c>
-      <c r="F894">
-        <v>3.18</v>
-      </c>
-      <c r="G894" t="s">
-        <v>36</v>
-      </c>
-      <c r="H894" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A895" t="s">
-        <v>8</v>
-      </c>
-      <c r="B895" t="s">
-        <v>35</v>
-      </c>
-      <c r="C895">
-        <v>1</v>
-      </c>
-      <c r="D895">
-        <v>4</v>
-      </c>
-      <c r="E895" t="s">
-        <v>18</v>
-      </c>
-      <c r="F895" t="s">
-        <v>36</v>
-      </c>
-      <c r="G895">
-        <v>60</v>
-      </c>
-      <c r="H895" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A896" t="s">
-        <v>8</v>
-      </c>
-      <c r="B896" t="s">
-        <v>35</v>
-      </c>
-      <c r="C896">
-        <v>1</v>
-      </c>
-      <c r="D896">
-        <v>5</v>
-      </c>
-      <c r="E896" t="s">
-        <v>10</v>
-      </c>
-      <c r="F896">
-        <v>1.9</v>
-      </c>
-      <c r="G896" t="s">
-        <v>36</v>
-      </c>
-      <c r="H896" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A897" t="s">
-        <v>8</v>
-      </c>
-      <c r="B897" t="s">
-        <v>35</v>
-      </c>
-      <c r="C897">
-        <v>1</v>
-      </c>
-      <c r="D897">
-        <v>5</v>
-      </c>
-      <c r="E897" t="s">
-        <v>14</v>
-      </c>
-      <c r="F897">
-        <v>6.2</v>
-      </c>
-      <c r="G897" t="s">
-        <v>36</v>
-      </c>
-      <c r="H897" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A898" t="s">
-        <v>8</v>
-      </c>
-      <c r="B898" t="s">
-        <v>35</v>
-      </c>
-      <c r="C898">
-        <v>1</v>
-      </c>
-      <c r="D898">
-        <v>5</v>
-      </c>
-      <c r="E898" t="s">
-        <v>13</v>
-      </c>
-      <c r="F898">
-        <v>1.56</v>
-      </c>
-      <c r="G898" t="s">
-        <v>36</v>
-      </c>
-      <c r="H898" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A899" t="s">
-        <v>8</v>
-      </c>
-      <c r="B899" t="s">
-        <v>35</v>
-      </c>
-      <c r="C899">
-        <v>1</v>
-      </c>
-      <c r="D899">
-        <v>5</v>
-      </c>
-      <c r="E899" t="s">
-        <v>12</v>
-      </c>
-      <c r="F899">
-        <v>0.87</v>
-      </c>
-      <c r="G899" t="s">
-        <v>36</v>
-      </c>
-      <c r="H899" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A900" t="s">
-        <v>8</v>
-      </c>
-      <c r="B900" t="s">
-        <v>35</v>
-      </c>
-      <c r="C900">
-        <v>1</v>
-      </c>
-      <c r="D900">
-        <v>5</v>
-      </c>
-      <c r="E900" t="s">
-        <v>16</v>
-      </c>
-      <c r="F900">
-        <v>1.56</v>
-      </c>
-      <c r="G900" t="s">
-        <v>36</v>
-      </c>
-      <c r="H900" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A901" t="s">
-        <v>8</v>
-      </c>
-      <c r="B901" t="s">
-        <v>35</v>
-      </c>
-      <c r="C901">
-        <v>1</v>
-      </c>
-      <c r="D901">
-        <v>5</v>
-      </c>
-      <c r="E901" t="s">
-        <v>18</v>
-      </c>
-      <c r="F901">
-        <v>2.6</v>
-      </c>
-      <c r="G901" t="s">
-        <v>36</v>
-      </c>
-      <c r="H901" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A902" t="s">
-        <v>8</v>
-      </c>
-      <c r="B902" t="s">
-        <v>35</v>
-      </c>
-      <c r="C902">
-        <v>1</v>
-      </c>
-      <c r="D902">
-        <v>6</v>
-      </c>
-      <c r="E902" t="s">
-        <v>10</v>
-      </c>
-      <c r="F902">
-        <v>2.19</v>
-      </c>
-      <c r="G902" t="s">
-        <v>36</v>
-      </c>
-      <c r="H902" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A903" t="s">
-        <v>8</v>
-      </c>
-      <c r="B903" t="s">
-        <v>35</v>
-      </c>
-      <c r="C903">
-        <v>1</v>
-      </c>
-      <c r="D903">
-        <v>6</v>
-      </c>
-      <c r="E903" t="s">
-        <v>14</v>
-      </c>
-      <c r="F903">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G903" t="s">
-        <v>36</v>
-      </c>
-      <c r="H903" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A904" t="s">
-        <v>8</v>
-      </c>
-      <c r="B904" t="s">
-        <v>35</v>
-      </c>
-      <c r="C904">
-        <v>1</v>
-      </c>
-      <c r="D904">
-        <v>6</v>
-      </c>
-      <c r="E904" t="s">
-        <v>13</v>
-      </c>
-      <c r="F904">
-        <v>1.34</v>
-      </c>
-      <c r="G904" t="s">
-        <v>36</v>
-      </c>
-      <c r="H904" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A905" t="s">
-        <v>8</v>
-      </c>
-      <c r="B905" t="s">
-        <v>35</v>
-      </c>
-      <c r="C905">
-        <v>1</v>
-      </c>
-      <c r="D905">
-        <v>6</v>
-      </c>
-      <c r="E905" t="s">
-        <v>12</v>
-      </c>
-      <c r="F905">
-        <v>1.9</v>
-      </c>
-      <c r="G905" t="s">
-        <v>36</v>
-      </c>
-      <c r="H905" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A906" t="s">
-        <v>8</v>
-      </c>
-      <c r="B906" t="s">
-        <v>35</v>
-      </c>
-      <c r="C906">
-        <v>1</v>
-      </c>
-      <c r="D906">
-        <v>6</v>
-      </c>
-      <c r="E906" t="s">
-        <v>16</v>
-      </c>
-      <c r="F906">
-        <v>2.5</v>
-      </c>
-      <c r="G906" t="s">
-        <v>36</v>
-      </c>
-      <c r="H906" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A907" t="s">
-        <v>8</v>
-      </c>
-      <c r="B907" t="s">
-        <v>35</v>
-      </c>
-      <c r="C907">
-        <v>1</v>
-      </c>
-      <c r="D907">
-        <v>6</v>
-      </c>
-      <c r="E907" t="s">
-        <v>18</v>
-      </c>
-      <c r="F907" t="s">
-        <v>36</v>
-      </c>
-      <c r="G907">
-        <v>31</v>
-      </c>
-      <c r="H907" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A908" t="s">
-        <v>8</v>
-      </c>
-      <c r="B908" t="s">
-        <v>35</v>
-      </c>
-      <c r="C908">
-        <v>1</v>
-      </c>
-      <c r="D908">
-        <v>7</v>
-      </c>
-      <c r="E908" t="s">
-        <v>10</v>
-      </c>
-      <c r="F908">
-        <v>2.85</v>
-      </c>
-      <c r="G908" t="s">
-        <v>36</v>
-      </c>
-      <c r="H908" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A909" t="s">
-        <v>8</v>
-      </c>
-      <c r="B909" t="s">
-        <v>35</v>
-      </c>
-      <c r="C909">
-        <v>1</v>
-      </c>
-      <c r="D909">
-        <v>7</v>
-      </c>
-      <c r="E909" t="s">
-        <v>14</v>
-      </c>
-      <c r="F909">
-        <v>7.8</v>
-      </c>
-      <c r="G909" t="s">
-        <v>36</v>
-      </c>
-      <c r="H909" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A910" t="s">
-        <v>8</v>
-      </c>
-      <c r="B910" t="s">
-        <v>35</v>
-      </c>
-      <c r="C910">
-        <v>1</v>
-      </c>
-      <c r="D910">
-        <v>7</v>
-      </c>
-      <c r="E910" t="s">
-        <v>13</v>
-      </c>
-      <c r="F910">
-        <v>2.27</v>
-      </c>
-      <c r="G910" t="s">
-        <v>36</v>
-      </c>
-      <c r="H910" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A911" t="s">
-        <v>8</v>
-      </c>
-      <c r="B911" t="s">
-        <v>35</v>
-      </c>
-      <c r="C911">
-        <v>1</v>
-      </c>
-      <c r="D911">
-        <v>7</v>
-      </c>
-      <c r="E911" t="s">
-        <v>12</v>
-      </c>
-      <c r="F911">
-        <v>2.12</v>
-      </c>
-      <c r="G911" t="s">
-        <v>36</v>
-      </c>
-      <c r="H911" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A912" t="s">
-        <v>8</v>
-      </c>
-      <c r="B912" t="s">
-        <v>35</v>
-      </c>
-      <c r="C912">
-        <v>1</v>
-      </c>
-      <c r="D912">
-        <v>7</v>
-      </c>
-      <c r="E912" t="s">
-        <v>16</v>
-      </c>
-      <c r="F912">
-        <v>2.1</v>
-      </c>
-      <c r="G912" t="s">
-        <v>36</v>
-      </c>
-      <c r="H912" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A913" t="s">
-        <v>8</v>
-      </c>
-      <c r="B913" t="s">
-        <v>35</v>
-      </c>
-      <c r="C913">
-        <v>1</v>
-      </c>
-      <c r="D913">
-        <v>7</v>
-      </c>
-      <c r="E913" t="s">
-        <v>18</v>
-      </c>
-      <c r="F913">
-        <v>2.75</v>
-      </c>
-      <c r="G913" t="s">
-        <v>36</v>
-      </c>
-      <c r="H913" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A914" t="s">
-        <v>8</v>
-      </c>
-      <c r="B914" t="s">
-        <v>35</v>
-      </c>
-      <c r="C914">
-        <v>1</v>
-      </c>
-      <c r="D914">
-        <v>8</v>
-      </c>
-      <c r="E914" t="s">
-        <v>10</v>
-      </c>
-      <c r="F914">
-        <v>4.2</v>
-      </c>
-      <c r="G914" t="s">
-        <v>36</v>
-      </c>
-      <c r="H914" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A915" t="s">
-        <v>8</v>
-      </c>
-      <c r="B915" t="s">
-        <v>35</v>
-      </c>
-      <c r="C915">
-        <v>1</v>
-      </c>
-      <c r="D915">
-        <v>8</v>
-      </c>
-      <c r="E915" t="s">
-        <v>14</v>
-      </c>
-      <c r="F915">
-        <v>0.73</v>
-      </c>
-      <c r="G915" t="s">
-        <v>36</v>
-      </c>
-      <c r="H915" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A916" t="s">
-        <v>8</v>
-      </c>
-      <c r="B916" t="s">
-        <v>35</v>
-      </c>
-      <c r="C916">
-        <v>1</v>
-      </c>
-      <c r="D916">
-        <v>8</v>
-      </c>
-      <c r="E916" t="s">
-        <v>13</v>
-      </c>
-      <c r="F916">
-        <v>1</v>
-      </c>
-      <c r="G916" t="s">
-        <v>36</v>
-      </c>
-      <c r="H916" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A917" t="s">
-        <v>8</v>
-      </c>
-      <c r="B917" t="s">
-        <v>35</v>
-      </c>
-      <c r="C917">
-        <v>1</v>
-      </c>
-      <c r="D917">
-        <v>8</v>
-      </c>
-      <c r="E917" t="s">
-        <v>12</v>
-      </c>
-      <c r="F917">
-        <v>0.2</v>
-      </c>
-      <c r="G917" t="s">
-        <v>36</v>
-      </c>
-      <c r="H917" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A918" t="s">
-        <v>8</v>
-      </c>
-      <c r="B918" t="s">
-        <v>35</v>
-      </c>
-      <c r="C918">
-        <v>1</v>
-      </c>
-      <c r="D918">
-        <v>8</v>
-      </c>
-      <c r="E918" t="s">
-        <v>16</v>
-      </c>
-      <c r="F918">
-        <v>3</v>
-      </c>
-      <c r="G918" t="s">
-        <v>36</v>
-      </c>
-      <c r="H918" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A919" t="s">
-        <v>8</v>
-      </c>
-      <c r="B919" t="s">
-        <v>35</v>
-      </c>
-      <c r="C919">
-        <v>1</v>
-      </c>
-      <c r="D919">
-        <v>8</v>
-      </c>
-      <c r="E919" t="s">
-        <v>18</v>
-      </c>
-      <c r="F919" t="s">
-        <v>36</v>
-      </c>
-      <c r="G919">
-        <v>35</v>
-      </c>
-      <c r="H919" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A920" t="s">
-        <v>8</v>
-      </c>
-      <c r="B920" t="s">
-        <v>35</v>
-      </c>
-      <c r="C920">
-        <v>1</v>
-      </c>
-      <c r="D920">
-        <v>9</v>
-      </c>
-      <c r="E920" t="s">
-        <v>10</v>
-      </c>
-      <c r="F920">
-        <v>2.8</v>
-      </c>
-      <c r="G920" t="s">
-        <v>36</v>
-      </c>
-      <c r="H920" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A921" t="s">
-        <v>8</v>
-      </c>
-      <c r="B921" t="s">
-        <v>35</v>
-      </c>
-      <c r="C921">
-        <v>1</v>
-      </c>
-      <c r="D921">
-        <v>9</v>
-      </c>
-      <c r="E921" t="s">
-        <v>14</v>
-      </c>
-      <c r="F921">
-        <v>6.24</v>
-      </c>
-      <c r="G921" t="s">
-        <v>36</v>
-      </c>
-      <c r="H921" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A922" t="s">
-        <v>8</v>
-      </c>
-      <c r="B922" t="s">
-        <v>35</v>
-      </c>
-      <c r="C922">
-        <v>1</v>
-      </c>
-      <c r="D922">
-        <v>9</v>
-      </c>
-      <c r="E922" t="s">
-        <v>13</v>
-      </c>
-      <c r="F922">
-        <v>2.4</v>
-      </c>
-      <c r="G922" t="s">
-        <v>36</v>
-      </c>
-      <c r="H922" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A923" t="s">
-        <v>8</v>
-      </c>
-      <c r="B923" t="s">
-        <v>35</v>
-      </c>
-      <c r="C923">
-        <v>1</v>
-      </c>
-      <c r="D923">
-        <v>9</v>
-      </c>
-      <c r="E923" t="s">
-        <v>12</v>
-      </c>
-      <c r="F923">
-        <v>6.6</v>
-      </c>
-      <c r="G923" t="s">
-        <v>36</v>
-      </c>
-      <c r="H923" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A924" t="s">
-        <v>8</v>
-      </c>
-      <c r="B924" t="s">
-        <v>35</v>
-      </c>
-      <c r="C924">
-        <v>1</v>
-      </c>
-      <c r="D924">
-        <v>9</v>
-      </c>
-      <c r="E924" t="s">
-        <v>16</v>
-      </c>
-      <c r="F924">
-        <v>1.5</v>
-      </c>
-      <c r="G924" t="s">
-        <v>36</v>
-      </c>
-      <c r="H924" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A925" t="s">
-        <v>8</v>
-      </c>
-      <c r="B925" t="s">
-        <v>35</v>
-      </c>
-      <c r="C925">
-        <v>1</v>
-      </c>
-      <c r="D925">
-        <v>9</v>
-      </c>
-      <c r="E925" t="s">
-        <v>18</v>
-      </c>
-      <c r="F925" t="s">
-        <v>36</v>
-      </c>
-      <c r="G925">
-        <v>67</v>
-      </c>
-      <c r="H925" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A926" t="s">
-        <v>8</v>
-      </c>
-      <c r="B926" t="s">
-        <v>35</v>
-      </c>
-      <c r="C926">
-        <v>1</v>
-      </c>
-      <c r="D926">
-        <v>10</v>
-      </c>
-      <c r="E926" t="s">
-        <v>10</v>
-      </c>
-      <c r="F926">
-        <v>1.38</v>
-      </c>
-      <c r="G926" t="s">
-        <v>36</v>
-      </c>
-      <c r="H926" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A927" t="s">
-        <v>8</v>
-      </c>
-      <c r="B927" t="s">
-        <v>35</v>
-      </c>
-      <c r="C927">
-        <v>1</v>
-      </c>
-      <c r="D927">
-        <v>10</v>
-      </c>
-      <c r="E927" t="s">
-        <v>14</v>
-      </c>
-      <c r="F927" t="s">
-        <v>36</v>
-      </c>
-      <c r="G927">
-        <v>40.5</v>
-      </c>
-      <c r="H927" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A928" t="s">
-        <v>8</v>
-      </c>
-      <c r="B928" t="s">
-        <v>35</v>
-      </c>
-      <c r="C928">
-        <v>1</v>
-      </c>
-      <c r="D928">
-        <v>10</v>
-      </c>
-      <c r="E928" t="s">
-        <v>13</v>
-      </c>
-      <c r="F928">
-        <v>0.53</v>
-      </c>
-      <c r="G928" t="s">
-        <v>36</v>
-      </c>
-      <c r="H928" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A929" t="s">
-        <v>8</v>
-      </c>
-      <c r="B929" t="s">
-        <v>35</v>
-      </c>
-      <c r="C929">
-        <v>1</v>
-      </c>
-      <c r="D929">
-        <v>10</v>
-      </c>
-      <c r="E929" t="s">
-        <v>12</v>
-      </c>
-      <c r="F929">
-        <v>2</v>
-      </c>
-      <c r="G929" t="s">
-        <v>36</v>
-      </c>
-      <c r="H929" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A930" t="s">
-        <v>8</v>
-      </c>
-      <c r="B930" t="s">
-        <v>35</v>
-      </c>
-      <c r="C930">
-        <v>1</v>
-      </c>
-      <c r="D930">
-        <v>10</v>
-      </c>
-      <c r="E930" t="s">
-        <v>16</v>
-      </c>
-      <c r="F930">
-        <v>6.3</v>
-      </c>
-      <c r="G930" t="s">
-        <v>36</v>
-      </c>
-      <c r="H930" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A931" t="s">
-        <v>8</v>
-      </c>
-      <c r="B931" t="s">
-        <v>35</v>
-      </c>
-      <c r="C931">
-        <v>1</v>
-      </c>
-      <c r="D931">
-        <v>10</v>
-      </c>
-      <c r="E931" t="s">
-        <v>18</v>
-      </c>
-      <c r="F931" t="s">
-        <v>36</v>
-      </c>
-      <c r="G931">
-        <v>65</v>
-      </c>
-      <c r="H931" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>